--- a/biology/Zoologie/Adhemarius_ypsilon/Adhemarius_ypsilon.xlsx
+++ b/biology/Zoologie/Adhemarius_ypsilon/Adhemarius_ypsilon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adhemarius ypsilon est une espèce de lépidoptères  (papillons) de la famille des Sphingidae, de la sous-famille des Smerinthinae, de la tribu des Ambulycini et du genre Adhemarius.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est de 89 à 117 mm pour les mâles et de 107 à 126 mm pour les femelles.
 			♂ Face dorsale - Muséum de Toulouse
@@ -546,9 +560,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Adhemarius ypsilon  a été décrite par les entomologistes britanniques Lionel Walter Rothschild et Heinrich Ernst Karl Jordan, en 1903[1]. La localité type est le Costa Rica.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Adhemarius ypsilon  a été décrite par les entomologistes britanniques Lionel Walter Rothschild et Heinrich Ernst Karl Jordan, en 1903. La localité type est le Costa Rica.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Costa Rica, les papillons de cette espèce prennent leur envol toute l'année.
-Les larves se nourrissent de plusieurs espèces de plantes du genre Ocotea (Ocotea veraguensis, Ocotea atirrensis, Ocotea sarah et Ocotea dendrodaphne)[2].
+Les larves se nourrissent de plusieurs espèces de plantes du genre Ocotea (Ocotea veraguensis, Ocotea atirrensis, Ocotea sarah et Ocotea dendrodaphne).
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Présent au Costa Rica, Mexique, Équateur, Venezuela, et en Guyane
 </t>
